--- a/data/pca/factorExposure/factorExposure_2010-02-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01673458448747755</v>
+        <v>0.01703442024113977</v>
       </c>
       <c r="C2">
-        <v>-0.0006900944921557194</v>
+        <v>-0.0009229524932623709</v>
       </c>
       <c r="D2">
-        <v>0.006119449522559143</v>
+        <v>-0.007235621017631966</v>
       </c>
       <c r="E2">
-        <v>0.02054661588945584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-2.392430364922316e-05</v>
+      </c>
+      <c r="F2">
+        <v>0.009384488694504289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1279049333194827</v>
+        <v>0.09357395754323837</v>
       </c>
       <c r="C4">
-        <v>-0.0477835479022244</v>
+        <v>-0.01558144321499296</v>
       </c>
       <c r="D4">
-        <v>0.03713466971446649</v>
+        <v>-0.08397825855106475</v>
       </c>
       <c r="E4">
-        <v>-0.006837096985307486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02979606705691805</v>
+      </c>
+      <c r="F4">
+        <v>-0.02835376313705695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1194717446322757</v>
+        <v>0.1565603064122378</v>
       </c>
       <c r="C6">
-        <v>0.03149403807215775</v>
+        <v>-0.02472958635596715</v>
       </c>
       <c r="D6">
-        <v>0.005341807380066801</v>
+        <v>0.02273541260886356</v>
       </c>
       <c r="E6">
-        <v>0.02301255800700541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01103533113813432</v>
+      </c>
+      <c r="F6">
+        <v>-0.05162744870887113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07280324799732134</v>
+        <v>0.05955747608693384</v>
       </c>
       <c r="C7">
-        <v>-0.02779853825466858</v>
+        <v>0.0009545465722857724</v>
       </c>
       <c r="D7">
-        <v>0.05173709967609615</v>
+        <v>-0.0519913303293808</v>
       </c>
       <c r="E7">
-        <v>0.0337861476797956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01357282316106073</v>
+      </c>
+      <c r="F7">
+        <v>-0.04369699638764855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05640646405836327</v>
+        <v>0.05862805912574667</v>
       </c>
       <c r="C8">
-        <v>-0.01089193115406621</v>
+        <v>0.01354902798820031</v>
       </c>
       <c r="D8">
-        <v>0.02311075042760504</v>
+        <v>-0.03155823706698278</v>
       </c>
       <c r="E8">
-        <v>0.02398453940047156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01596146208425292</v>
+      </c>
+      <c r="F8">
+        <v>0.03168198518907493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.09846767060367648</v>
+        <v>0.071799985230816</v>
       </c>
       <c r="C9">
-        <v>-0.04893327981633924</v>
+        <v>-0.01148507361673909</v>
       </c>
       <c r="D9">
-        <v>0.01447995187100472</v>
+        <v>-0.08468934279917988</v>
       </c>
       <c r="E9">
-        <v>0.007974250852965895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02432695218671922</v>
+      </c>
+      <c r="F9">
+        <v>-0.04803723387994549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06191593248676773</v>
+        <v>0.09536554185374203</v>
       </c>
       <c r="C10">
-        <v>0.1786010214205068</v>
+        <v>-0.01855291821808499</v>
       </c>
       <c r="D10">
-        <v>-0.06991133730257695</v>
+        <v>0.1701474535593452</v>
       </c>
       <c r="E10">
-        <v>0.01936475121098669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.03848067986463856</v>
+      </c>
+      <c r="F10">
+        <v>0.0574304266671568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09735081011219265</v>
+        <v>0.08778484662746978</v>
       </c>
       <c r="C11">
-        <v>-0.05109380941644455</v>
+        <v>-0.01112575757826815</v>
       </c>
       <c r="D11">
-        <v>0.05856250206695404</v>
+        <v>-0.1174635745238863</v>
       </c>
       <c r="E11">
-        <v>0.03980325228657806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04783805177570181</v>
+      </c>
+      <c r="F11">
+        <v>-0.01913169754708275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1062577169608141</v>
+        <v>0.09249569899552607</v>
       </c>
       <c r="C12">
-        <v>-0.06046697517352147</v>
+        <v>-0.008537191891981074</v>
       </c>
       <c r="D12">
-        <v>0.06868849076981805</v>
+        <v>-0.1286917602446458</v>
       </c>
       <c r="E12">
-        <v>0.03901313792338983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.04857359785334145</v>
+      </c>
+      <c r="F12">
+        <v>-0.0174958708439319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04115393748090655</v>
+        <v>0.04352283166495667</v>
       </c>
       <c r="C13">
-        <v>-0.02640661044053893</v>
+        <v>-0.0039309093898476</v>
       </c>
       <c r="D13">
-        <v>-0.01720032718985468</v>
+        <v>-0.04840233503546403</v>
       </c>
       <c r="E13">
-        <v>-0.004740026571438904</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01288530001072531</v>
+      </c>
+      <c r="F13">
+        <v>-0.007290690392601967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02584591321671223</v>
+        <v>0.02274913007683757</v>
       </c>
       <c r="C14">
-        <v>-0.004417434706990312</v>
+        <v>-0.014002938801021</v>
       </c>
       <c r="D14">
-        <v>0.004634830549861336</v>
+        <v>-0.03228474642450428</v>
       </c>
       <c r="E14">
-        <v>0.003097067212119228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0171742127275388</v>
+      </c>
+      <c r="F14">
+        <v>-0.01791584989115707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03059352015016214</v>
+        <v>0.03120014577554871</v>
       </c>
       <c r="C15">
-        <v>-0.02697206822062196</v>
+        <v>-0.005140118780220256</v>
       </c>
       <c r="D15">
-        <v>0.001698141699071689</v>
+        <v>-0.04489751077015233</v>
       </c>
       <c r="E15">
-        <v>0.01671966976530622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.007309908549161257</v>
+      </c>
+      <c r="F15">
+        <v>-0.02751925706571465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.10120122967382</v>
+        <v>0.07298878836607017</v>
       </c>
       <c r="C16">
-        <v>-0.04042725310892822</v>
+        <v>-0.002317915679825692</v>
       </c>
       <c r="D16">
-        <v>0.06594101559303522</v>
+        <v>-0.1255665912833549</v>
       </c>
       <c r="E16">
-        <v>0.04270783101506221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.06390972136303459</v>
+      </c>
+      <c r="F16">
+        <v>-0.0224922622012614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02620384825863655</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003827795862673115</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02076721352301714</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.004973511526793373</v>
+      </c>
+      <c r="F18">
+        <v>0.01530111787596273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05738472951243217</v>
+        <v>0.05998970078269921</v>
       </c>
       <c r="C20">
-        <v>-0.01791454782508914</v>
+        <v>-0.0005459846961743133</v>
       </c>
       <c r="D20">
-        <v>0.04518746464016361</v>
+        <v>-0.07665741234886476</v>
       </c>
       <c r="E20">
-        <v>-0.004100071476972569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05627391122284546</v>
+      </c>
+      <c r="F20">
+        <v>-0.02381397968712014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02009193961848146</v>
+        <v>0.0390631426852374</v>
       </c>
       <c r="C21">
-        <v>0.004923961965915673</v>
+        <v>-0.006473838560372923</v>
       </c>
       <c r="D21">
-        <v>0.001192741836198389</v>
+        <v>-0.03546230243862322</v>
       </c>
       <c r="E21">
-        <v>-0.03389260224172335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.008142812999053341</v>
+      </c>
+      <c r="F21">
+        <v>0.02233773217138668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03776412832064827</v>
+        <v>0.04475731352738258</v>
       </c>
       <c r="C22">
-        <v>0.03624721254704998</v>
+        <v>-0.0004944143091988336</v>
       </c>
       <c r="D22">
-        <v>-0.0337013525389932</v>
+        <v>-0.002963486289329843</v>
       </c>
       <c r="E22">
-        <v>0.05976349494503817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.02661456184054553</v>
+      </c>
+      <c r="F22">
+        <v>0.01389235566857745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03787438566657876</v>
+        <v>0.04479104768054987</v>
       </c>
       <c r="C23">
-        <v>0.03617035335304078</v>
+        <v>-0.0005149023131205742</v>
       </c>
       <c r="D23">
-        <v>-0.0332140563987799</v>
+        <v>-0.003056196955843504</v>
       </c>
       <c r="E23">
-        <v>0.06165845998653163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02692440220612668</v>
+      </c>
+      <c r="F23">
+        <v>0.01335997107196917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.103180852980777</v>
+        <v>0.07964153350464834</v>
       </c>
       <c r="C24">
-        <v>-0.04290336116911209</v>
+        <v>-0.002783726733096393</v>
       </c>
       <c r="D24">
-        <v>0.062547709953924</v>
+        <v>-0.120413332686242</v>
       </c>
       <c r="E24">
-        <v>0.03337431516524154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05108968572899188</v>
+      </c>
+      <c r="F24">
+        <v>-0.02194539869697798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.1077519873518808</v>
+        <v>0.08504427064811751</v>
       </c>
       <c r="C25">
-        <v>-0.03736854954334946</v>
+        <v>-0.005040850224336894</v>
       </c>
       <c r="D25">
-        <v>0.05849239990283755</v>
+        <v>-0.1093586812414963</v>
       </c>
       <c r="E25">
-        <v>0.04279098382754131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03394533913771045</v>
+      </c>
+      <c r="F25">
+        <v>-0.02519715182612166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04660145748471371</v>
+        <v>0.05573025145161329</v>
       </c>
       <c r="C26">
-        <v>0.01453838331583478</v>
+        <v>-0.01432584976050257</v>
       </c>
       <c r="D26">
-        <v>0.02180823855017705</v>
+        <v>-0.04229719136895988</v>
       </c>
       <c r="E26">
-        <v>0.01091007252092824</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0259841259133596</v>
+      </c>
+      <c r="F26">
+        <v>0.01117122429355535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.05798060992012376</v>
+        <v>0.1426956990523989</v>
       </c>
       <c r="C28">
-        <v>0.2607869001944643</v>
+        <v>-0.01783191108740673</v>
       </c>
       <c r="D28">
-        <v>-0.171516259930594</v>
+        <v>0.2654420665065448</v>
       </c>
       <c r="E28">
-        <v>0.05353299276899792</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.06835656263476381</v>
+      </c>
+      <c r="F28">
+        <v>-0.01905154276513907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03136948564335578</v>
+        <v>0.0267744987815182</v>
       </c>
       <c r="C29">
-        <v>-0.008482529281995129</v>
+        <v>-0.008151591052026442</v>
       </c>
       <c r="D29">
-        <v>-0.003603785284513731</v>
+        <v>-0.03197640351411458</v>
       </c>
       <c r="E29">
-        <v>0.00753020814708177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01112027237254025</v>
+      </c>
+      <c r="F29">
+        <v>0.01203797032146045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1231793582832013</v>
+        <v>0.06133192335157118</v>
       </c>
       <c r="C30">
-        <v>-0.06680007686521565</v>
+        <v>-0.004505140199044633</v>
       </c>
       <c r="D30">
-        <v>0.03298479586797987</v>
+        <v>-0.08568688675391209</v>
       </c>
       <c r="E30">
-        <v>0.01202994161122251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02370966028825623</v>
+      </c>
+      <c r="F30">
+        <v>-0.09203856404706577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0350567548184291</v>
+        <v>0.04911461745963308</v>
       </c>
       <c r="C31">
-        <v>-0.01373339301524815</v>
+        <v>-0.01505517750057675</v>
       </c>
       <c r="D31">
-        <v>0.02676133262759986</v>
+        <v>-0.02597928475011245</v>
       </c>
       <c r="E31">
-        <v>0.01823819248565856</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02707667164887462</v>
+      </c>
+      <c r="F31">
+        <v>0.005854841810252097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.06293872234718494</v>
+        <v>0.04818717741500271</v>
       </c>
       <c r="C32">
-        <v>0.0008328937327547332</v>
+        <v>0.0008991477789116716</v>
       </c>
       <c r="D32">
-        <v>0.03206923391817134</v>
+        <v>-0.03420454512715042</v>
       </c>
       <c r="E32">
-        <v>-0.003665020684333552</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0302093917343257</v>
+      </c>
+      <c r="F32">
+        <v>-0.006119029665485018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1111902453520213</v>
+        <v>0.08953964582439815</v>
       </c>
       <c r="C33">
-        <v>-0.04883355259857062</v>
+        <v>-0.00834773242458928</v>
       </c>
       <c r="D33">
-        <v>0.03228229861906798</v>
+        <v>-0.09795698740939063</v>
       </c>
       <c r="E33">
-        <v>0.07221660860681024</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04615689220047083</v>
+      </c>
+      <c r="F33">
+        <v>-0.03782923146884221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.08821236596322743</v>
+        <v>0.06781224005760685</v>
       </c>
       <c r="C34">
-        <v>-0.02754986938458697</v>
+        <v>-0.01163016263845241</v>
       </c>
       <c r="D34">
-        <v>0.05106053523460752</v>
+        <v>-0.1049479893271178</v>
       </c>
       <c r="E34">
-        <v>0.03164672972470656</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0364321610290351</v>
+      </c>
+      <c r="F34">
+        <v>-0.03469297988561799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01444563009302835</v>
+        <v>0.02448359220737715</v>
       </c>
       <c r="C35">
-        <v>-0.01212068085311587</v>
+        <v>-0.002363197850627861</v>
       </c>
       <c r="D35">
-        <v>-0.005288572949504554</v>
+        <v>-0.01254203088525815</v>
       </c>
       <c r="E35">
-        <v>0.003910976755187896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01100745341240549</v>
+      </c>
+      <c r="F35">
+        <v>-0.006415772812411115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02813175708026964</v>
+        <v>0.02490712192190616</v>
       </c>
       <c r="C36">
-        <v>-0.01701692701033557</v>
+        <v>-0.007337415089384776</v>
       </c>
       <c r="D36">
-        <v>0.0007013998394851588</v>
+        <v>-0.03921244169747942</v>
       </c>
       <c r="E36">
-        <v>0.002339224337394998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.01681918206761487</v>
+      </c>
+      <c r="F36">
+        <v>-0.01348843322151973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.005762426641990836</v>
+        <v>0.001490375349199616</v>
       </c>
       <c r="C38">
-        <v>-0.0001321011138227051</v>
+        <v>-0.0002199914410604198</v>
       </c>
       <c r="D38">
-        <v>-0.0003816140087098599</v>
+        <v>-0.0007383410421821745</v>
       </c>
       <c r="E38">
-        <v>0.0005927328813797435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001110450174861585</v>
+      </c>
+      <c r="F38">
+        <v>0.001081285550757581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1674099589329914</v>
+        <v>0.1071937133372541</v>
       </c>
       <c r="C39">
-        <v>-0.09614693073064673</v>
+        <v>-0.01651785890652728</v>
       </c>
       <c r="D39">
-        <v>0.09603604600112249</v>
+        <v>-0.1533920747660071</v>
       </c>
       <c r="E39">
-        <v>0.06228789448809676</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06067049020773988</v>
+      </c>
+      <c r="F39">
+        <v>-0.02271255635101702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009813272502739254</v>
+        <v>0.03770313191857281</v>
       </c>
       <c r="C40">
-        <v>0.001072206045703182</v>
+        <v>-0.007100163105971729</v>
       </c>
       <c r="D40">
-        <v>0.0092740524076489</v>
+        <v>-0.0331520432526794</v>
       </c>
       <c r="E40">
-        <v>-0.01560506782848713</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.001843131095477269</v>
+      </c>
+      <c r="F40">
+        <v>0.01465139188997821</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0195636469092302</v>
+        <v>0.02654483292226379</v>
       </c>
       <c r="C41">
-        <v>0.02325270339565212</v>
+        <v>-0.00650324230548419</v>
       </c>
       <c r="D41">
-        <v>0.01669747228015274</v>
+        <v>-0.01125706947843818</v>
       </c>
       <c r="E41">
-        <v>0.008376387568698523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01247882433364069</v>
+      </c>
+      <c r="F41">
+        <v>0.009060987901066592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02791055139796461</v>
+        <v>0.04014318253230774</v>
       </c>
       <c r="C43">
-        <v>0.01757153261243256</v>
+        <v>-0.006595410425464466</v>
       </c>
       <c r="D43">
-        <v>0.02925756921255629</v>
+        <v>-0.0205353048612914</v>
       </c>
       <c r="E43">
-        <v>0.0278690349628639</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02383424936852574</v>
+      </c>
+      <c r="F43">
+        <v>0.0140397580749872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1355521956198705</v>
+        <v>0.07677829121029707</v>
       </c>
       <c r="C44">
-        <v>-0.06635892882265865</v>
+        <v>-0.02080520557488671</v>
       </c>
       <c r="D44">
-        <v>0.03791010529254805</v>
+        <v>-0.09857536060970939</v>
       </c>
       <c r="E44">
-        <v>0.02753060628427078</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07411167890829948</v>
+      </c>
+      <c r="F44">
+        <v>-0.1697239309683481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01462746112844145</v>
+        <v>0.02356855871242102</v>
       </c>
       <c r="C46">
-        <v>0.01666745763633256</v>
+        <v>-0.003809777731793549</v>
       </c>
       <c r="D46">
-        <v>0.006781853944234226</v>
+        <v>-0.01143057496215519</v>
       </c>
       <c r="E46">
-        <v>0.03128697047984681</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0224504850868217</v>
+      </c>
+      <c r="F46">
+        <v>-0.0008230920912681688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04427053538253837</v>
+        <v>0.05091561093952027</v>
       </c>
       <c r="C47">
-        <v>0.004491684776736832</v>
+        <v>-0.003271720892215154</v>
       </c>
       <c r="D47">
-        <v>0.01485566272580191</v>
+        <v>-0.013263378350217</v>
       </c>
       <c r="E47">
-        <v>0.003447568495719814</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02236361813556443</v>
+      </c>
+      <c r="F47">
+        <v>0.04012094543386648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0445384866955973</v>
+        <v>0.04778609999973669</v>
       </c>
       <c r="C48">
-        <v>-0.01915256676472655</v>
+        <v>-0.002544832114575396</v>
       </c>
       <c r="D48">
-        <v>-0.001238229201276387</v>
+        <v>-0.05095455592176428</v>
       </c>
       <c r="E48">
-        <v>0.00558704374167664</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004930193981410536</v>
+      </c>
+      <c r="F48">
+        <v>-0.004700733806970074</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2181703489759802</v>
+        <v>0.2026601495514486</v>
       </c>
       <c r="C49">
-        <v>0.05384680835896265</v>
+        <v>-0.01806438777691032</v>
       </c>
       <c r="D49">
-        <v>0.04119972484296389</v>
+        <v>0.01199342682802097</v>
       </c>
       <c r="E49">
-        <v>-0.01189815151163542</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.03296442539921524</v>
+      </c>
+      <c r="F49">
+        <v>-0.0298306318685143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04282286913882954</v>
+        <v>0.04889727516971235</v>
       </c>
       <c r="C50">
-        <v>-0.01067158621673855</v>
+        <v>-0.01111160418391191</v>
       </c>
       <c r="D50">
-        <v>0.03568042023730452</v>
+        <v>-0.02556968573640867</v>
       </c>
       <c r="E50">
-        <v>0.01033127504221304</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02935654668637857</v>
+      </c>
+      <c r="F50">
+        <v>-0.006554781328569726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.008053345688401367</v>
+        <v>0.00220319858355697</v>
       </c>
       <c r="C51">
-        <v>0.01298695749540225</v>
+        <v>-0.0005599710389994498</v>
       </c>
       <c r="D51">
-        <v>-0.008098164836676565</v>
+        <v>0.002373056097580448</v>
       </c>
       <c r="E51">
-        <v>0.01548809710665398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>6.410906329590598e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.003970244862119057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1391730289866647</v>
+        <v>0.1447889465865135</v>
       </c>
       <c r="C52">
-        <v>-0.06835083659629161</v>
+        <v>-0.01406969209634022</v>
       </c>
       <c r="D52">
-        <v>0.01440832459865487</v>
+        <v>-0.04861681934573467</v>
       </c>
       <c r="E52">
-        <v>-0.01120312568403418</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.0239654514368107</v>
+      </c>
+      <c r="F52">
+        <v>-0.0398229834608012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.151649959882902</v>
+        <v>0.1735855740090052</v>
       </c>
       <c r="C53">
-        <v>0.0100849226768022</v>
+        <v>-0.01715989581878552</v>
       </c>
       <c r="D53">
-        <v>-0.01446712398189666</v>
+        <v>-0.007515875766703437</v>
       </c>
       <c r="E53">
-        <v>-0.02177586472381297</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03469346808327279</v>
+      </c>
+      <c r="F53">
+        <v>-0.0703892583538246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05122392538533624</v>
+        <v>0.02204480783671882</v>
       </c>
       <c r="C54">
-        <v>-0.0007713271509332533</v>
+        <v>-0.01246951785980745</v>
       </c>
       <c r="D54">
-        <v>0.01092974869057409</v>
+        <v>-0.03261775140929816</v>
       </c>
       <c r="E54">
-        <v>0.01244677277053157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01552534771874274</v>
+      </c>
+      <c r="F54">
+        <v>0.003303815658883523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08779901255789477</v>
+        <v>0.1144952062260473</v>
       </c>
       <c r="C55">
-        <v>-0.02157798156897183</v>
+        <v>-0.01560872465818035</v>
       </c>
       <c r="D55">
-        <v>-0.01293957999061081</v>
+        <v>-0.0100876171932204</v>
       </c>
       <c r="E55">
-        <v>0.0301279266785728</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03062306468065504</v>
+      </c>
+      <c r="F55">
+        <v>-0.04502681285049984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1568416121426181</v>
+        <v>0.1774738508249391</v>
       </c>
       <c r="C56">
-        <v>-0.0008741870335740902</v>
+        <v>-0.01446228064822588</v>
       </c>
       <c r="D56">
-        <v>0.0120951923080897</v>
+        <v>-0.005249109203948932</v>
       </c>
       <c r="E56">
-        <v>0.01152160969100452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04045375942940908</v>
+      </c>
+      <c r="F56">
+        <v>-0.04828398008742732</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04093794352869825</v>
+        <v>0.04621813544116456</v>
       </c>
       <c r="C58">
-        <v>-0.004983030366823289</v>
+        <v>-0.001087397189862709</v>
       </c>
       <c r="D58">
-        <v>0.01433325006834711</v>
+        <v>-0.06850909020074457</v>
       </c>
       <c r="E58">
-        <v>-0.02120105334816839</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02454167868476255</v>
+      </c>
+      <c r="F58">
+        <v>0.04211280511481111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1277731770833299</v>
+        <v>0.1716990046298068</v>
       </c>
       <c r="C59">
-        <v>0.2421211008005849</v>
+        <v>-0.0183333737645889</v>
       </c>
       <c r="D59">
-        <v>-0.1514045011736943</v>
+        <v>0.222364544556645</v>
       </c>
       <c r="E59">
-        <v>0.0624106225843629</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04693452318669918</v>
+      </c>
+      <c r="F59">
+        <v>0.03155315303678854</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2752803410310872</v>
+        <v>0.2345624095706063</v>
       </c>
       <c r="C60">
-        <v>-0.0406042257966842</v>
+        <v>0.003895655793560033</v>
       </c>
       <c r="D60">
-        <v>0.0263923589420512</v>
+        <v>-0.04253284930530484</v>
       </c>
       <c r="E60">
-        <v>-0.07597045879888711</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01087105977267963</v>
+      </c>
+      <c r="F60">
+        <v>0.02207116272026774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1235293328503996</v>
+        <v>0.0833088161397172</v>
       </c>
       <c r="C61">
-        <v>-0.06467333573558817</v>
+        <v>-0.0123922949440243</v>
       </c>
       <c r="D61">
-        <v>0.04378444755664008</v>
+        <v>-0.1162846869908752</v>
       </c>
       <c r="E61">
-        <v>0.04461576448557267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04001768403831171</v>
+      </c>
+      <c r="F61">
+        <v>-0.009232339384032551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1650737725619421</v>
+        <v>0.1697457096274658</v>
       </c>
       <c r="C62">
-        <v>-0.01055109575537006</v>
+        <v>-0.01802025085021844</v>
       </c>
       <c r="D62">
-        <v>0.01008946420053237</v>
+        <v>-0.01028885995762465</v>
       </c>
       <c r="E62">
-        <v>-0.003256026870500208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0370094156279305</v>
+      </c>
+      <c r="F62">
+        <v>-0.03031881695914058</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.05490821705700848</v>
+        <v>0.04312655663068999</v>
       </c>
       <c r="C63">
-        <v>-0.02403640583600694</v>
+        <v>-0.002565602571722208</v>
       </c>
       <c r="D63">
-        <v>0.007606146459624766</v>
+        <v>-0.05621974741556423</v>
       </c>
       <c r="E63">
-        <v>0.02694315944702658</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02118275320687974</v>
+      </c>
+      <c r="F63">
+        <v>-0.007079964999812342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1007359058126647</v>
+        <v>0.1105154039674533</v>
       </c>
       <c r="C64">
-        <v>-0.01956674763971208</v>
+        <v>-0.01124277449310417</v>
       </c>
       <c r="D64">
-        <v>0.02532193832538937</v>
+        <v>-0.04198127200419804</v>
       </c>
       <c r="E64">
-        <v>0.005345257657871261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02123994514075507</v>
+      </c>
+      <c r="F64">
+        <v>-0.02830783980359385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1159829992643339</v>
+        <v>0.1476166825383215</v>
       </c>
       <c r="C65">
-        <v>0.004681204857445281</v>
+        <v>-0.0314276451358667</v>
       </c>
       <c r="D65">
-        <v>-0.01223374969588386</v>
+        <v>0.04234244149133059</v>
       </c>
       <c r="E65">
-        <v>-0.00566915830225825</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.001630502996440926</v>
+      </c>
+      <c r="F65">
+        <v>-0.04563889943204787</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.196160866482583</v>
+        <v>0.1277701137796635</v>
       </c>
       <c r="C66">
-        <v>-0.09386731466538913</v>
+        <v>-0.01436621105012675</v>
       </c>
       <c r="D66">
-        <v>0.1079013558376674</v>
+        <v>-0.1429637877046274</v>
       </c>
       <c r="E66">
-        <v>0.07283161302842485</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.06811492634910905</v>
+      </c>
+      <c r="F66">
+        <v>-0.02751104365153746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07876578723111163</v>
+        <v>0.06340200097408874</v>
       </c>
       <c r="C67">
-        <v>-0.02203490627036987</v>
+        <v>-0.002823880681216695</v>
       </c>
       <c r="D67">
-        <v>-0.0002797183086139747</v>
+        <v>-0.05583848707580195</v>
       </c>
       <c r="E67">
-        <v>0.09500288155533762</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01690677700537924</v>
+      </c>
+      <c r="F67">
+        <v>0.04097148463793982</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.05677644852414573</v>
+        <v>0.1171577551318593</v>
       </c>
       <c r="C68">
-        <v>0.2286733262287955</v>
+        <v>-0.02786847609450157</v>
       </c>
       <c r="D68">
-        <v>-0.1469861512387529</v>
+        <v>0.259991782179035</v>
       </c>
       <c r="E68">
-        <v>0.04131912378205103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.08508432658299803</v>
+      </c>
+      <c r="F68">
+        <v>-0.0193125731021214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03339026216790082</v>
+        <v>0.03920464578342688</v>
       </c>
       <c r="C69">
-        <v>-0.0007252200451975321</v>
+        <v>-0.0008755913274063581</v>
       </c>
       <c r="D69">
-        <v>-0.01562589985410141</v>
+        <v>-0.008311343023772004</v>
       </c>
       <c r="E69">
-        <v>0.02421386380697648</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02389210961498204</v>
+      </c>
+      <c r="F69">
+        <v>0.006333793431339654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03352078800824333</v>
+        <v>0.06271344658659656</v>
       </c>
       <c r="C70">
-        <v>-0.001927192977613875</v>
+        <v>0.02874999368812478</v>
       </c>
       <c r="D70">
-        <v>-0.02646880943541651</v>
+        <v>-0.0290431649134172</v>
       </c>
       <c r="E70">
-        <v>0.04411736010516434</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.04913509975535629</v>
+      </c>
+      <c r="F70">
+        <v>0.2323196031886759</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.06346782540016215</v>
+        <v>0.1364688975155354</v>
       </c>
       <c r="C71">
-        <v>0.2496869272923155</v>
+        <v>-0.03250950012786428</v>
       </c>
       <c r="D71">
-        <v>-0.1669288436125276</v>
+        <v>0.2746148084324694</v>
       </c>
       <c r="E71">
-        <v>0.05046220016192707</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.09499571503888889</v>
+      </c>
+      <c r="F71">
+        <v>-0.02385409177284659</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1305672693960735</v>
+        <v>0.1417399027763013</v>
       </c>
       <c r="C72">
-        <v>0.03999898122855956</v>
+        <v>-0.0250163763775002</v>
       </c>
       <c r="D72">
-        <v>-0.0018413699482701</v>
+        <v>-0.001069459628154155</v>
       </c>
       <c r="E72">
-        <v>0.01857657403099047</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.0420557871810139</v>
+      </c>
+      <c r="F72">
+        <v>-0.03024604178536807</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2144095254234515</v>
+        <v>0.201346518596951</v>
       </c>
       <c r="C73">
-        <v>0.03865442944975554</v>
+        <v>-0.01192431440486148</v>
       </c>
       <c r="D73">
-        <v>0.00174484508257268</v>
+        <v>-0.01545740243467139</v>
       </c>
       <c r="E73">
-        <v>0.03459896612320717</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.0660686815351957</v>
+      </c>
+      <c r="F73">
+        <v>-0.02561907995407268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1149600964094925</v>
+        <v>0.09438477568676729</v>
       </c>
       <c r="C74">
-        <v>-0.005560732016847175</v>
+        <v>-0.01236916801487878</v>
       </c>
       <c r="D74">
-        <v>0.03078352400332152</v>
+        <v>-0.01929965754340202</v>
       </c>
       <c r="E74">
-        <v>0.01213870794722524</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04858063086501317</v>
+      </c>
+      <c r="F74">
+        <v>-0.05157587650150077</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1362261138889298</v>
+        <v>0.1289249635360021</v>
       </c>
       <c r="C75">
-        <v>-0.01385840898279382</v>
+        <v>-0.02671409601830589</v>
       </c>
       <c r="D75">
-        <v>0.03890376265483785</v>
+        <v>-0.03270821907087903</v>
       </c>
       <c r="E75">
-        <v>0.01119336690068269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.06075322265484311</v>
+      </c>
+      <c r="F75">
+        <v>-0.01469686085855985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01094889756688916</v>
+        <v>0.002736442184446829</v>
       </c>
       <c r="C76">
-        <v>0.01134155015370025</v>
+        <v>-0.0006914100833581983</v>
       </c>
       <c r="D76">
-        <v>-0.006614403271575301</v>
+        <v>0.001789326562066134</v>
       </c>
       <c r="E76">
-        <v>0.01018928783958663</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0005145749229499175</v>
+      </c>
+      <c r="F76">
+        <v>-0.003452719895960795</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.09450863215967424</v>
+        <v>0.08029965417776676</v>
       </c>
       <c r="C77">
-        <v>-0.08060971889819409</v>
+        <v>-0.008338667570846711</v>
       </c>
       <c r="D77">
-        <v>0.06415053507899021</v>
+        <v>-0.119212727228504</v>
       </c>
       <c r="E77">
-        <v>-0.02054692157820816</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03989126703113687</v>
+      </c>
+      <c r="F77">
+        <v>-0.03169219681731903</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1217362155010231</v>
+        <v>0.1034597208762317</v>
       </c>
       <c r="C78">
-        <v>0.02074879144662031</v>
+        <v>-0.03965184021752741</v>
       </c>
       <c r="D78">
-        <v>0.1332310070781285</v>
+        <v>-0.1152218373026677</v>
       </c>
       <c r="E78">
-        <v>0.2141943047777541</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07879883838761792</v>
+      </c>
+      <c r="F78">
+        <v>-0.0554582227132094</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1431437073849407</v>
+        <v>0.1640318102154316</v>
       </c>
       <c r="C79">
-        <v>0.002494081417531223</v>
+        <v>-0.02086368903587288</v>
       </c>
       <c r="D79">
-        <v>0.04933464578875964</v>
+        <v>-0.01859950557730294</v>
       </c>
       <c r="E79">
-        <v>-0.01412432283798669</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.04985903376604265</v>
+      </c>
+      <c r="F79">
+        <v>-0.006825735821602764</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0918771124179492</v>
+        <v>0.08067734553146247</v>
       </c>
       <c r="C80">
-        <v>-0.05675420569366879</v>
+        <v>0.0009359702819201034</v>
       </c>
       <c r="D80">
-        <v>0.01720101187876615</v>
+        <v>-0.05869862830969819</v>
       </c>
       <c r="E80">
-        <v>0.0596252097396423</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03607922779869351</v>
+      </c>
+      <c r="F80">
+        <v>0.0276283318354482</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1571447926230015</v>
+        <v>0.1231008641635614</v>
       </c>
       <c r="C81">
-        <v>-0.02527636945412727</v>
+        <v>-0.03072989824294641</v>
       </c>
       <c r="D81">
-        <v>0.05375814356340758</v>
+        <v>-0.01639649820104775</v>
       </c>
       <c r="E81">
-        <v>0.02611667826357721</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06067710925861195</v>
+      </c>
+      <c r="F81">
+        <v>-0.01126722489465212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.175420778663967</v>
+        <v>0.1645106469486449</v>
       </c>
       <c r="C82">
-        <v>-0.03947998655941986</v>
+        <v>-0.02295400231362113</v>
       </c>
       <c r="D82">
-        <v>0.01902813309936839</v>
+        <v>-0.008044802613569046</v>
       </c>
       <c r="E82">
-        <v>0.01513022154581867</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.03382472925279541</v>
+      </c>
+      <c r="F82">
+        <v>-0.07287365625050302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0839679906067998</v>
+        <v>0.06184209771187736</v>
       </c>
       <c r="C83">
-        <v>-0.02225687289575874</v>
+        <v>-0.003162415764485898</v>
       </c>
       <c r="D83">
-        <v>0.004288763226401569</v>
+        <v>-0.04912567776689483</v>
       </c>
       <c r="E83">
-        <v>-0.06624300710186566</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.005299260213327404</v>
+      </c>
+      <c r="F83">
+        <v>0.03980404021150769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07054298293329475</v>
+        <v>0.05840758348900133</v>
       </c>
       <c r="C84">
-        <v>-0.01265834451682148</v>
+        <v>-0.01081825704957928</v>
       </c>
       <c r="D84">
-        <v>0.004291910668410501</v>
+        <v>-0.066569799946803</v>
       </c>
       <c r="E84">
-        <v>-0.005463623070179714</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.00633153501266186</v>
+      </c>
+      <c r="F84">
+        <v>-0.007447822345200084</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1248313885931391</v>
+        <v>0.1382626962488528</v>
       </c>
       <c r="C85">
-        <v>0.004955445040638666</v>
+        <v>-0.02654535320107383</v>
       </c>
       <c r="D85">
-        <v>0.01287439692816642</v>
+        <v>-0.01234130975271628</v>
       </c>
       <c r="E85">
-        <v>-0.003288707667146557</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.04106020753531451</v>
+      </c>
+      <c r="F85">
+        <v>-0.04555320213237466</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.116132754279227</v>
+        <v>0.09610267658852589</v>
       </c>
       <c r="C86">
-        <v>0.2057400449641253</v>
+        <v>0.005470132552004967</v>
       </c>
       <c r="D86">
-        <v>0.2298239643910285</v>
+        <v>-0.03426923050089992</v>
       </c>
       <c r="E86">
-        <v>-0.8865659441479669</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.1617853613193986</v>
+      </c>
+      <c r="F86">
+        <v>0.9002564756856227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1143596819441835</v>
+        <v>0.09538084909280788</v>
       </c>
       <c r="C87">
-        <v>-0.1025391805925778</v>
+        <v>-0.02172237139177731</v>
       </c>
       <c r="D87">
-        <v>-0.01797638084418216</v>
+        <v>-0.09374705175072343</v>
       </c>
       <c r="E87">
-        <v>-0.0156380560287211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05304511776041786</v>
+      </c>
+      <c r="F87">
+        <v>-0.06720754992940808</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05036646683217321</v>
+        <v>0.06109449608423218</v>
       </c>
       <c r="C88">
-        <v>-0.01131350442959176</v>
+        <v>-0.002342550831018285</v>
       </c>
       <c r="D88">
-        <v>0.03090387321022212</v>
+        <v>-0.05058927808391504</v>
       </c>
       <c r="E88">
-        <v>0.04198191217859842</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.025737046882641</v>
+      </c>
+      <c r="F88">
+        <v>-0.0095874223238983</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.09904852926790571</v>
+        <v>0.1348460273209923</v>
       </c>
       <c r="C89">
-        <v>0.312497530399326</v>
+        <v>-0.01015496896000346</v>
       </c>
       <c r="D89">
-        <v>-0.2047393617060224</v>
+        <v>0.2519417176907174</v>
       </c>
       <c r="E89">
-        <v>0.02831284465090872</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.08907920985461183</v>
+      </c>
+      <c r="F89">
+        <v>-0.005421602749569319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.069217475248809</v>
+        <v>0.1484562565606616</v>
       </c>
       <c r="C90">
-        <v>0.2574526225748299</v>
+        <v>-0.02820039283730595</v>
       </c>
       <c r="D90">
-        <v>-0.166226491448204</v>
+        <v>0.2663206401470547</v>
       </c>
       <c r="E90">
-        <v>0.03228350681009542</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.1092773293009626</v>
+      </c>
+      <c r="F90">
+        <v>-0.009413559898354908</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.09488135229170289</v>
+        <v>0.1197100611934795</v>
       </c>
       <c r="C91">
-        <v>-0.004701668347871552</v>
+        <v>-0.01732106593963627</v>
       </c>
       <c r="D91">
-        <v>0.02492251164036239</v>
+        <v>0.01032244468438383</v>
       </c>
       <c r="E91">
-        <v>-0.008256938830884977</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0577601759604312</v>
+      </c>
+      <c r="F91">
+        <v>0.01098914833425558</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.08635745769580543</v>
+        <v>0.1483721454195099</v>
       </c>
       <c r="C92">
-        <v>0.2727741370466226</v>
+        <v>-0.02020870816763635</v>
       </c>
       <c r="D92">
-        <v>-0.2000501858909833</v>
+        <v>0.2916658559567151</v>
       </c>
       <c r="E92">
-        <v>0.01556912905633839</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.103731912298171</v>
+      </c>
+      <c r="F92">
+        <v>-0.002282653107958934</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.07405665766601262</v>
+        <v>0.1514707845177309</v>
       </c>
       <c r="C93">
-        <v>0.2841799747903049</v>
+        <v>-0.0242454819716215</v>
       </c>
       <c r="D93">
-        <v>-0.1842213141978229</v>
+        <v>0.2653931507322019</v>
       </c>
       <c r="E93">
-        <v>0.03088914525719146</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.07612875704843793</v>
+      </c>
+      <c r="F93">
+        <v>-0.009614214019725616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.161101826459642</v>
+        <v>0.1318989570177763</v>
       </c>
       <c r="C94">
-        <v>-0.009287439963098271</v>
+        <v>-0.02383664505355677</v>
       </c>
       <c r="D94">
-        <v>0.03728946914028371</v>
+        <v>-0.04388034268690021</v>
       </c>
       <c r="E94">
-        <v>0.06538343045355414</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06097524822247669</v>
+      </c>
+      <c r="F94">
+        <v>-0.03317322212606843</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1275954617427917</v>
+        <v>0.1256414673159593</v>
       </c>
       <c r="C95">
-        <v>-0.01802668775981265</v>
+        <v>-0.00448715920484797</v>
       </c>
       <c r="D95">
-        <v>0.04436301997663218</v>
+        <v>-0.0931726658332587</v>
       </c>
       <c r="E95">
-        <v>0.0439121802253541</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04638087801617478</v>
+      </c>
+      <c r="F95">
+        <v>0.01139762224977396</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01580882006572969</v>
+        <v>0.100173521809765</v>
       </c>
       <c r="C96">
-        <v>-0.000758377256246745</v>
+        <v>0.9885726010181263</v>
       </c>
       <c r="D96">
-        <v>0.00139305402525091</v>
+        <v>0.03764871600585935</v>
       </c>
       <c r="E96">
-        <v>0.0001494871709538804</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.05828656377571687</v>
+      </c>
+      <c r="F96">
+        <v>-0.04177804031172837</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1788118691168225</v>
+        <v>0.1896895564042659</v>
       </c>
       <c r="C97">
-        <v>0.03042339060491508</v>
+        <v>0.009553407818202421</v>
       </c>
       <c r="D97">
-        <v>0.05357047569429935</v>
+        <v>0.01583773357873268</v>
       </c>
       <c r="E97">
-        <v>0.03706390352634933</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.00872720446356162</v>
+      </c>
+      <c r="F97">
+        <v>0.095454875751994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2220785238358491</v>
+        <v>0.2057732752592279</v>
       </c>
       <c r="C98">
-        <v>0.01886374091364333</v>
+        <v>-0.007345552224182107</v>
       </c>
       <c r="D98">
-        <v>-0.09405009029196132</v>
+        <v>-0.008334323522224785</v>
       </c>
       <c r="E98">
-        <v>-0.1172161873309601</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.09631916864208763</v>
+      </c>
+      <c r="F98">
+        <v>0.09643974777995593</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04762986021245031</v>
+        <v>0.05570250694533314</v>
       </c>
       <c r="C99">
-        <v>0.01699067440359857</v>
+        <v>0.004294859869702654</v>
       </c>
       <c r="D99">
-        <v>0.01380138514953299</v>
+        <v>-0.03701172291970901</v>
       </c>
       <c r="E99">
-        <v>0.04499567114521533</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.02442076585487795</v>
+      </c>
+      <c r="F99">
+        <v>0.0003022509585348268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1298409929519707</v>
+        <v>0.1243023526044037</v>
       </c>
       <c r="C100">
-        <v>-0.5155026066358787</v>
+        <v>0.05280648059624291</v>
       </c>
       <c r="D100">
-        <v>-0.7619363618457815</v>
+        <v>-0.3445217266557402</v>
       </c>
       <c r="E100">
-        <v>-0.2354811211255159</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.8942564897696506</v>
+      </c>
+      <c r="F100">
+        <v>0.08613222299814129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03132021314746312</v>
+        <v>0.02669582467767631</v>
       </c>
       <c r="C101">
-        <v>-0.008561037557928962</v>
+        <v>-0.008159715841467121</v>
       </c>
       <c r="D101">
-        <v>-0.003460570185809469</v>
+        <v>-0.03167198531397999</v>
       </c>
       <c r="E101">
-        <v>0.008649768897039048</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01051608427087537</v>
+      </c>
+      <c r="F101">
+        <v>0.01356178352059821</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
